--- a/Document/purchaseOrder_DataIntegrasi.xlsx
+++ b/Document/purchaseOrder_DataIntegrasi.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Katalon Studio\Bio-Farma\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C575C3BB-0E4B-461F-B7AF-9E5A10750536}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42C001CA-9E11-4419-8ED0-CF27019E805C}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{459CCFCA-0EFC-4357-BE84-3A3B07E8384A}"/>
   </bookViews>
@@ -419,24 +419,6 @@
     <t>Tidak</t>
   </si>
   <si>
-    <t>PR/BIOF/2022/09931</t>
-  </si>
-  <si>
-    <t>PR/BIOF/2022/09930</t>
-  </si>
-  <si>
-    <t>PR/BIOF/2022/09974</t>
-  </si>
-  <si>
-    <t>F4748</t>
-  </si>
-  <si>
-    <t>F4746</t>
-  </si>
-  <si>
-    <t>F5266</t>
-  </si>
-  <si>
     <t xml:space="preserve">KONTRAK ANGKUTAN BBM SOLAR </t>
   </si>
   <si>
@@ -458,19 +440,10 @@
     <t>Close</t>
   </si>
   <si>
-    <t>DN.G-0014</t>
-  </si>
-  <si>
     <t>GUNA BUMI UTAMA</t>
   </si>
   <si>
-    <t>DN.P-0071</t>
-  </si>
-  <si>
     <t>PERTAMINA PATRA NIAGA</t>
-  </si>
-  <si>
-    <t>DN.P-0036</t>
   </si>
   <si>
     <t>PRASADHA PAMUNAH LIMBAH INDUSTRI</t>
@@ -508,22 +481,49 @@
     </r>
   </si>
   <si>
-    <t>PO/KAEF/2023/0004</t>
+    <t>PO/AutomatedTest/2024/001</t>
   </si>
   <si>
-    <t>PO/KAEF/2023/0005</t>
+    <t>PO/AutomatedTest/2024/002</t>
   </si>
   <si>
-    <t>PO/KAEF/2023/0021</t>
+    <t>PO/AutomatedTest/2024/003</t>
   </si>
   <si>
-    <t>SPJ/KAEF/2021/0021</t>
+    <t>PR/AutomatedTest/2024/001</t>
   </si>
   <si>
-    <t>SPJ/KAEF/2021/0048</t>
+    <t>PR/AutomatedTest/2024/002</t>
   </si>
   <si>
-    <t>SPJ/KAEF/2020/0020</t>
+    <t>PR/AutomatedTest/2024/003</t>
+  </si>
+  <si>
+    <t>SPJ/BIOF/2024/0021</t>
+  </si>
+  <si>
+    <t>SPJ/BIOF/2024/0048</t>
+  </si>
+  <si>
+    <t>SPJ/KAEF/2020/020</t>
+  </si>
+  <si>
+    <t>AutomatedTest/F4748</t>
+  </si>
+  <si>
+    <t>AutomatedTest/F4746</t>
+  </si>
+  <si>
+    <t>AutomatedTest/F5266</t>
+  </si>
+  <si>
+    <t>AutomatedTest/001</t>
+  </si>
+  <si>
+    <t>AutomatedTest/002</t>
+  </si>
+  <si>
+    <t>AutomatedTest/003</t>
   </si>
 </sst>
 </file>
@@ -618,7 +618,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -652,14 +652,35 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -978,13 +999,13 @@
   <dimension ref="A1:AA1520"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" topLeftCell="W1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AB6" sqref="AB6"/>
+      <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" style="14"/>
+    <col min="1" max="1" width="8.7109375" style="13"/>
     <col min="2" max="2" width="17.140625" customWidth="1"/>
     <col min="3" max="3" width="19.28515625" customWidth="1"/>
     <col min="4" max="4" width="18" style="12" customWidth="1"/>
@@ -1057,10 +1078,10 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="S1" s="2" t="s">
         <v>21</v>
@@ -1090,201 +1111,201 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="14">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>30</v>
+      <c r="B2" s="15" t="s">
+        <v>28</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="D2" s="17">
+        <v>45293</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="H2" s="17">
+        <v>45293</v>
+      </c>
+      <c r="I2" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="D2" s="9">
-        <v>44928</v>
-      </c>
-      <c r="E2" s="7" t="s">
+      <c r="J2" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="F2" t="s">
-        <v>59</v>
+      <c r="L2" s="18">
+        <v>800000</v>
       </c>
-      <c r="G2" t="s">
-        <v>84</v>
-      </c>
-      <c r="H2" s="9">
-        <v>44928</v>
-      </c>
-      <c r="I2" s="3" t="s">
+      <c r="M2" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="J2" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="L2" s="10">
-        <v>800000</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="N2" s="10">
+      <c r="N2" s="18">
         <v>158</v>
       </c>
-      <c r="O2" s="8" t="s">
-        <v>71</v>
+      <c r="O2" s="20" t="s">
+        <v>65</v>
       </c>
-      <c r="P2" s="10">
+      <c r="P2" s="18">
         <v>126400000</v>
       </c>
-      <c r="Q2" s="10">
+      <c r="Q2" s="18">
         <v>1</v>
       </c>
-      <c r="R2" s="10">
+      <c r="R2" s="18">
         <v>126400000</v>
       </c>
-      <c r="S2" s="10"/>
-      <c r="X2" s="15">
+      <c r="S2" s="18"/>
+      <c r="X2" s="21">
         <v>44120</v>
       </c>
       <c r="Y2" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
-      <c r="Z2" s="8" t="s">
-        <v>74</v>
+      <c r="Z2" s="20" t="s">
+        <v>67</v>
       </c>
-      <c r="AA2" t="s">
-        <v>72</v>
+      <c r="AA2" s="15" t="s">
+        <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="14">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>30</v>
+      <c r="B3" s="15" t="s">
+        <v>28</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="D3" s="17">
+        <v>45293</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="H3" s="17">
+        <v>45293</v>
+      </c>
+      <c r="I3" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="D3" s="9">
-        <v>44928</v>
-      </c>
-      <c r="E3" s="7" t="s">
+      <c r="J3" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="F3" t="s">
-        <v>59</v>
-      </c>
-      <c r="G3" t="s">
-        <v>85</v>
-      </c>
-      <c r="H3" s="9">
-        <v>44928</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="L3" s="10">
+      <c r="L3" s="18">
         <v>400000</v>
       </c>
-      <c r="M3" s="4" t="s">
-        <v>69</v>
+      <c r="M3" s="19" t="s">
+        <v>63</v>
       </c>
-      <c r="N3" s="10">
+      <c r="N3" s="18">
         <v>17812.5</v>
       </c>
-      <c r="O3" s="13" t="s">
-        <v>71</v>
+      <c r="O3" s="22" t="s">
+        <v>65</v>
       </c>
-      <c r="P3" s="10">
+      <c r="P3" s="18">
         <v>7125000000</v>
       </c>
-      <c r="Q3" s="10">
+      <c r="Q3" s="18">
         <v>1</v>
       </c>
-      <c r="R3" s="10">
+      <c r="R3" s="18">
         <v>7125000000</v>
       </c>
-      <c r="S3" s="10"/>
-      <c r="X3" s="15">
+      <c r="S3" s="18"/>
+      <c r="X3" s="21">
         <v>44120</v>
       </c>
       <c r="Y3" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
-      <c r="Z3" s="8" t="s">
-        <v>76</v>
+      <c r="Z3" s="20" t="s">
+        <v>68</v>
       </c>
-      <c r="AA3" t="s">
-        <v>72</v>
+      <c r="AA3" s="15" t="s">
+        <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="14">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="D4" s="17">
+        <v>45293</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="H4" s="17">
+        <v>45294</v>
+      </c>
+      <c r="I4" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="D4" s="9">
-        <v>44929</v>
-      </c>
-      <c r="E4" s="7" t="s">
+      <c r="J4" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="F4" t="s">
-        <v>58</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="L4" s="18">
         <v>86</v>
       </c>
-      <c r="H4" s="9">
-        <v>44929</v>
+      <c r="M4" s="19" t="s">
+        <v>64</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="N4" s="18">
+        <v>20000</v>
+      </c>
+      <c r="O4" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="J4" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="L4" s="10">
-        <v>86</v>
-      </c>
-      <c r="M4" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="N4" s="10">
-        <v>20000</v>
-      </c>
-      <c r="O4" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="P4" s="10">
+      <c r="P4" s="18">
         <v>1720000</v>
       </c>
-      <c r="Q4" s="10">
+      <c r="Q4" s="18">
         <v>1</v>
       </c>
-      <c r="R4" s="10">
+      <c r="R4" s="18">
         <v>1720000</v>
       </c>
-      <c r="S4" s="10"/>
-      <c r="X4" s="15">
+      <c r="S4" s="18"/>
+      <c r="X4" s="21">
         <v>63100</v>
       </c>
       <c r="Y4" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
-      <c r="Z4" s="8" t="s">
-        <v>78</v>
+      <c r="Z4" s="20" t="s">
+        <v>69</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AA4" s="15" t="s">
         <v>24</v>
       </c>
     </row>
